--- a/Test_1.xlsx
+++ b/Test_1.xlsx
@@ -462,36 +462,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
